--- a/referensi_excel.xlsx
+++ b/referensi_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\projects\laksamana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5264214-8ED0-41D1-9713-D9BE19EF1A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4A66B7-6F96-4B24-B95D-B35610E09B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{6252AF7F-E64E-48FC-ACD7-1B7DD6FD8A9C}"/>
   </bookViews>
@@ -2457,7 +2457,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:M27"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,11 +2477,11 @@
     DEC2HEX(RANDBETWEEN(0,4294967295),8),
     DEC2HEX(RANDBETWEEN(0,42949),4)
 )</f>
-        <v>A608CDBE-6ECB-280A-9238-6F3453C01A06</v>
+        <v>26B59249-85A6-7249-97EA-5FC971259F1F</v>
       </c>
       <c r="B1" t="str">
         <f ca="1">LOWER(A1)</f>
-        <v>a608cdbe-6ecb-280a-9238-6f3453c01a06</v>
+        <v>26b59249-85a6-7249-97ea-5fc971259f1f</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2500,11 +2500,11 @@
     DEC2HEX(RANDBETWEEN(0,4294967295),8),
     DEC2HEX(RANDBETWEEN(0,42949),4)
 )</f>
-        <v>358822B6-47B2-5437-820F-AF6D253E0133</v>
+        <v>EB3526CB-1D5A-6720-08E7-618F33D220ED</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B37" ca="1" si="1">LOWER(A2)</f>
-        <v>358822b6-47b2-5437-820f-af6d253e0133</v>
+        <v>eb3526cb-1d5a-6720-08e7-618f33d220ed</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2516,11 +2516,11 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1FE1806D-5E0B-771D-8870-9C56C12216B0</v>
+        <v>C4DB735E-2B48-2551-722E-17CE6CDB169C</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1fe1806d-5e0b-771d-8870-9c56c12216b0</v>
+        <v>c4db735e-2b48-2551-722e-17ce6cdb169c</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2532,11 +2532,11 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2AE3F972-1A3A-3315-A1AB-3B8EE4707A10</v>
+        <v>0CBB2189-782A-217D-459A-1C565E88744D</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2ae3f972-1a3a-3315-a1ab-3b8ee4707a10</v>
+        <v>0cbb2189-782a-217d-459a-1c565e88744d</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2548,11 +2548,11 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0AA6D1D4-A14C-2AF7-56A1-209879CC2B3D</v>
+        <v>FC1320A1-8284-3487-98F4-64C52B400CC2</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0aa6d1d4-a14c-2af7-56a1-209879cc2b3d</v>
+        <v>fc1320a1-8284-3487-98f4-64c52b400cc2</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2564,11 +2564,11 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D73D9073-373A-4082-1FF2-49E70D8F6C20</v>
+        <v>8A0310E8-4738-A0AA-A39F-BD6FF8311DDA</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>d73d9073-373a-4082-1ff2-49e70d8f6c20</v>
+        <v>8a0310e8-4738-a0aa-a39f-bd6ff8311dda</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -2580,11 +2580,11 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1761D71E-0B2C-0302-7F65-0A62052AA0E3</v>
+        <v>552F115A-7D89-76B9-4494-ABF7BE6B29E3</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1761d71e-0b2c-0302-7f65-0a62052aa0e3</v>
+        <v>552f115a-7d89-76b9-4494-abf7be6b29e3</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -2596,11 +2596,11 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>332752ED-7379-390F-6052-C94E642C9C95</v>
+        <v>4B3D844F-4979-4245-A2DF-078605344CDD</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>332752ed-7379-390f-6052-c94e642c9c95</v>
+        <v>4b3d844f-4979-4245-a2df-078605344cdd</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -2612,11 +2612,11 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>90C92479-6CF9-1FDF-8A95-9C012AB245EE</v>
+        <v>211290F0-9A61-0CEA-0909-CE5239ED21DA</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>90c92479-6cf9-1fdf-8a95-9c012ab245ee</v>
+        <v>211290f0-9a61-0cea-0909-ce5239ed21da</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -2628,11 +2628,11 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FFF2B2E3-2825-8CB3-30CD-4DCF0AAA50AB</v>
+        <v>517829BE-A6BB-11C3-8A38-F601857D6E02</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>fff2b2e3-2825-8cb3-30cd-4dcf0aaa50ab</v>
+        <v>517829be-a6bb-11c3-8a38-f601857d6e02</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2644,11 +2644,11 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FCDCA387-95BB-4CB3-188D-420F87279713</v>
+        <v>E3114F45-3291-117F-75DC-57F468FB7D03</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>fcdca387-95bb-4cb3-188d-420f87279713</v>
+        <v>e3114f45-3291-117f-75dc-57f468fb7d03</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -2660,11 +2660,11 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7E9BB9EA-6559-9B39-479F-42EC20C28723</v>
+        <v>9F1C651B-7E39-1478-6A40-158258EA550A</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7e9bb9ea-6559-9b39-479f-42ec20c28723</v>
+        <v>9f1c651b-7e39-1478-6a40-158258ea550a</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -2685,11 +2685,11 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>32F82E67-1873-1669-5BF4-3286D31C0B37</v>
+        <v>CD5F9685-341F-28C4-2E4C-BF319FB5985D</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>32f82e67-1873-1669-5bf4-3286d31c0b37</v>
+        <v>cd5f9685-341f-28c4-2e4c-bf319fb5985d</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -2713,11 +2713,11 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F91BEB67-8907-235A-5572-DF9ECEA79155</v>
+        <v>6038AA44-37B8-1B05-6777-01145FBB1C62</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>f91beb67-8907-235a-5572-df9ecea79155</v>
+        <v>6038aa44-37b8-1b05-6777-01145fbb1c62</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -2741,11 +2741,11 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2AD72299-7D35-08C7-5CE3-32F8E8921800</v>
+        <v>E164FB91-4B75-167C-3378-4CCD13BE7FDB</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2ad72299-7d35-08c7-5ce3-32f8e8921800</v>
+        <v>e164fb91-4b75-167c-3378-4ccd13be7fdb</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -2769,11 +2769,11 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DCDAE4F7-6F8F-4151-1820-8FF6BE148FCF</v>
+        <v>0BE2BCE3-A6C8-7594-2AD2-1D67751E7FAF</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>dcdae4f7-6f8f-4151-1820-8ff6be148fcf</v>
+        <v>0be2bce3-a6c8-7594-2ad2-1d67751e7faf</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -2794,11 +2794,11 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B427369F-8889-31A7-645D-66DCF156136B</v>
+        <v>D3BEF9E1-124A-0227-557E-F2C422602703</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>b427369f-8889-31a7-645d-66dcf156136b</v>
+        <v>d3bef9e1-124a-0227-557e-f2c422602703</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -2822,11 +2822,11 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>295A70AB-59DA-7D2F-4836-620788329F25</v>
+        <v>D8179E81-16E0-7F72-3B49-BDC0D8EC62DA</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>295a70ab-59da-7d2f-4836-620788329f25</v>
+        <v>d8179e81-16e0-7f72-3b49-bdc0d8ec62da</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
@@ -2850,11 +2850,11 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D128F9F9-0E08-1050-8691-3C23AF171987</v>
+        <v>E9EF97F5-2D82-5526-6324-F08EE3EE5E8D</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>d128f9f9-0e08-1050-8691-3c23af171987</v>
+        <v>e9ef97f5-2d82-5526-6324-f08ee3ee5e8d</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -2878,11 +2878,11 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>405C559C-5A76-080E-2ED5-AD1A8B090EBB</v>
+        <v>BE3395D9-2D2A-5388-9CF7-EF1200D22110</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>405c559c-5a76-080e-2ed5-ad1a8b090ebb</v>
+        <v>be3395d9-2d2a-5388-9cf7-ef1200d22110</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -2906,11 +2906,11 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5A2763BB-68D4-306D-5D30-1557F642196C</v>
+        <v>A55EEBD4-7C62-34F0-0283-C8D94C3A444E</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5a2763bb-68d4-306d-5d30-1557f642196c</v>
+        <v>a55eebd4-7c62-34f0-0283-c8d94c3a444e</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
@@ -2934,11 +2934,11 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8ED40567-2D33-4F57-56C1-698C66E6327C</v>
+        <v>75130DDB-8735-497D-50E5-74E1721564CD</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8ed40567-2d33-4f57-56c1-698c66e6327c</v>
+        <v>75130ddb-8735-497d-50e5-74e1721564cd</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -2962,11 +2962,11 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A199CCFC-6046-1E56-9875-252FAEDC26A8</v>
+        <v>63F5433E-5007-5362-1685-5F5709CEA3C5</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>a199ccfc-6046-1e56-9875-252faedc26a8</v>
+        <v>63f5433e-5007-5362-1685-5f5709cea3c5</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -2990,11 +2990,11 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>57AD853D-48D7-0560-485E-78E84B656663</v>
+        <v>68E7698E-9B79-46E9-0341-A5EADBF02A0A</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>57ad853d-48d7-0560-485e-78e84b656663</v>
+        <v>68e7698e-9b79-46e9-0341-a5eadbf02a0a</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
@@ -3015,11 +3015,11 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B58001DC-6AEE-5D68-2190-8D78C88565BC</v>
+        <v>9F953A71-734A-A38A-3A3B-4FBDAFB45E9D</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>b58001dc-6aee-5d68-2190-8d78c88565bc</v>
+        <v>9f953a71-734a-a38a-3a3b-4fbdafb45e9d</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
@@ -3040,11 +3040,11 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30C9BAE0-6DF1-82A1-1CAD-AFBDC8DC7B68</v>
+        <v>8E3A7307-993C-1B51-6ECB-A9AD2C5142F6</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>30c9bae0-6df1-82a1-1cad-afbdc8dc7b68</v>
+        <v>8e3a7307-993c-1b51-6ecb-a9ad2c5142f6</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
@@ -3068,11 +3068,11 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0501E586-25AA-1FF5-393B-B0CA87B29DF9</v>
+        <v>6BE75207-5714-1130-2F5D-1EEBFEA35540</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0501e586-25aa-1ff5-393b-b0ca87b29df9</v>
+        <v>6be75207-5714-1130-2f5d-1eebfea35540</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
@@ -3096,11 +3096,11 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0EA7E830-8EDD-624F-95D0-D76AD7E0972B</v>
+        <v>D0C9F515-3949-3F09-58F9-5E157E741EB3</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0ea7e830-8edd-624f-95d0-d76ad7e0972b</v>
+        <v>d0c9f515-3949-3f09-58f9-5e157e741eb3</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
@@ -3112,11 +3112,11 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>27E30371-3C07-4A3C-96E5-541F62BD3E1F</v>
+        <v>E14CEB82-670C-16BC-4450-40B71BD3860C</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>27e30371-3c07-4a3c-96e5-541f62bd3e1f</v>
+        <v>e14ceb82-670c-16bc-4450-40b71bd3860c</v>
       </c>
       <c r="C29" t="s">
         <v>56</v>
@@ -3128,11 +3128,11 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0BDC3612-A289-83F6-223A-79E7C40272C8</v>
+        <v>A99D8BAD-2A80-7933-262C-8C6E91507761</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0bdc3612-a289-83f6-223a-79e7c40272c8</v>
+        <v>a99d8bad-2a80-7933-262c-8c6e91507761</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
@@ -3144,11 +3144,11 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1507629D-43A7-7CB5-A5C2-2DAC91538248</v>
+        <v>B7C5C2BD-1D0E-4E0E-8498-BDDF3B2432AA</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1507629d-43a7-7cb5-a5c2-2dac91538248</v>
+        <v>b7c5c2bd-1d0e-4e0e-8498-bddf3b2432aa</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -3160,11 +3160,11 @@
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C7F70138-4328-141D-4A52-666E58AC7F43</v>
+        <v>4ADFB174-2AF5-4B94-28D3-A2290F679D97</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>c7f70138-4328-141d-4a52-666e58ac7f43</v>
+        <v>4adfb174-2af5-4b94-28d3-a2290f679d97</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -3176,11 +3176,11 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D4F6C472-4AC4-1364-85CD-33B269AE3955</v>
+        <v>7EE0CE58-61B2-72D6-3699-309E224C392C</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>d4f6c472-4ac4-1364-85cd-33b269ae3955</v>
+        <v>7ee0ce58-61b2-72d6-3699-309e224c392c</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
@@ -3192,11 +3192,11 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DB6E1C09-5D2F-7C4C-0B57-F80921C37485</v>
+        <v>4D42F6BB-5B96-97BE-14DC-CA32F6628E5B</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>db6e1c09-5d2f-7c4c-0b57-f80921c37485</v>
+        <v>4d42f6bb-5b96-97be-14dc-ca32f6628e5b</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
@@ -3208,11 +3208,11 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>584AF4C1-1F4B-68EA-460D-553CFF4B9BCB</v>
+        <v>8041AE3E-56EA-69A4-9FD5-878673785F25</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>584af4c1-1f4b-68ea-460d-553cff4b9bcb</v>
+        <v>8041ae3e-56ea-69a4-9fd5-878673785f25</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -3224,11 +3224,11 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4061A749-1AAA-4B56-4DD1-FF74E92F45D5</v>
+        <v>21AE5D2F-1889-712C-713C-A0AAD17D92C5</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4061a749-1aaa-4b56-4dd1-ff74e92f45d5</v>
+        <v>21ae5d2f-1889-712c-713c-a0aad17d92c5</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
@@ -3240,11 +3240,11 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C22511B0-8ADF-6ECE-738F-28D69FB8475A</v>
+        <v>41C7FAC6-70BD-860A-306C-5D2D87B580EF</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>c22511b0-8adf-6ece-738f-28d69fb8475a</v>
+        <v>41c7fac6-70bd-860a-306c-5d2d87b580ef</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -3269,7 +3269,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,8 +3458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DACE43-0939-4690-B1AF-3F7735F0A578}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/referensi_excel.xlsx
+++ b/referensi_excel.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\projects\laksamana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4A66B7-6F96-4B24-B95D-B35610E09B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDABBF1-D9C9-4EBA-A7F7-A2EFC118EFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{6252AF7F-E64E-48FC-ACD7-1B7DD6FD8A9C}"/>
+    <workbookView xWindow="18210" yWindow="0" windowWidth="9420" windowHeight="16200" activeTab="5" xr2:uid="{6252AF7F-E64E-48FC-ACD7-1B7DD6FD8A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="residensial" sheetId="5" r:id="rId5"/>
+    <sheet name="pengampu" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="749">
   <si>
     <t>11</t>
   </si>
@@ -2062,6 +2064,219 @@
   </si>
   <si>
     <t>S-3</t>
+  </si>
+  <si>
+    <t>Kategori PPKS</t>
+  </si>
+  <si>
+    <t>ABH</t>
+  </si>
+  <si>
+    <t>Langsung ke pertanyaan 20</t>
+  </si>
+  <si>
+    <t>Anak</t>
+  </si>
+  <si>
+    <t>Langsung ke pertanyaan 24</t>
+  </si>
+  <si>
+    <t>Lanjut Usia</t>
+  </si>
+  <si>
+    <t>Langsung ke pertanyaan 32</t>
+  </si>
+  <si>
+    <t>Kelompok Rentan</t>
+  </si>
+  <si>
+    <t>Langsung ke pertanyaan 25</t>
+  </si>
+  <si>
+    <t>NAPZA</t>
+  </si>
+  <si>
+    <t>ODHA</t>
+  </si>
+  <si>
+    <t>Penyandang Disabilitas</t>
+  </si>
+  <si>
+    <t>Langsung ke pertanyaan 26</t>
+  </si>
+  <si>
+    <t>Korban Bencana</t>
+  </si>
+  <si>
+    <t>Ragam ABH</t>
+  </si>
+  <si>
+    <t>ragam_abh</t>
+  </si>
+  <si>
+    <t>Informasi Kasus</t>
+  </si>
+  <si>
+    <t>informasi_kasus</t>
+  </si>
+  <si>
+    <t>Jenis Rujukan</t>
+  </si>
+  <si>
+    <t>jenis_rujukan</t>
+  </si>
+  <si>
+    <t>No. Putusan Pengadilan</t>
+  </si>
+  <si>
+    <t>no_putusan_pengadilan</t>
+  </si>
+  <si>
+    <t>Ragam Anak</t>
+  </si>
+  <si>
+    <t>ragam_anak</t>
+  </si>
+  <si>
+    <t>Ragam Kelompok Rentan</t>
+  </si>
+  <si>
+    <t>ragam_kelompok_rentan</t>
+  </si>
+  <si>
+    <t>Ragam Penyandang Disabilitas</t>
+  </si>
+  <si>
+    <t>ragam_penyandang_disabilitas</t>
+  </si>
+  <si>
+    <t>Ragam Disabilitas Fisik</t>
+  </si>
+  <si>
+    <t>ragam_disabilitas_fisik</t>
+  </si>
+  <si>
+    <t>Ragam Disabilitas Intelektual</t>
+  </si>
+  <si>
+    <t>ragam_disabilitas_intelektual</t>
+  </si>
+  <si>
+    <t>Ragam Disabilitas Mental</t>
+  </si>
+  <si>
+    <t>ragam_disabilitas_mental</t>
+  </si>
+  <si>
+    <t>Ragam Disabilitas Sensorik</t>
+  </si>
+  <si>
+    <t>ragam_disabilitas_sensorik</t>
+  </si>
+  <si>
+    <t>Disabilitas Ganda/Multi</t>
+  </si>
+  <si>
+    <t>disabilitas_ganda_multi</t>
+  </si>
+  <si>
+    <t>Penerima ATENSI</t>
+  </si>
+  <si>
+    <t>penerima_atensi</t>
+  </si>
+  <si>
+    <t>Masa Layanan</t>
+  </si>
+  <si>
+    <t>masa_layanan</t>
+  </si>
+  <si>
+    <t>Rencana Tanggal Terminasi</t>
+  </si>
+  <si>
+    <t>rencana_tanggal_terminasi</t>
+  </si>
+  <si>
+    <t>Peksos Pengampu/Pendamping Sosial</t>
+  </si>
+  <si>
+    <t>peksos_pengampu_pendamping_sosial</t>
+  </si>
+  <si>
+    <t>UPLOAD FOTO PM</t>
+  </si>
+  <si>
+    <t>upload_foto_pm</t>
+  </si>
+  <si>
+    <t>UPLOAD KK</t>
+  </si>
+  <si>
+    <t>upload_kk</t>
+  </si>
+  <si>
+    <t>UPLOAD AKTA KELAHIRAN</t>
+  </si>
+  <si>
+    <t>upload_akta_kelahiran</t>
+  </si>
+  <si>
+    <t>UPLOAD DOKUMEN RUJUKAN</t>
+  </si>
+  <si>
+    <t>upload_dokumen_rujukan</t>
+  </si>
+  <si>
+    <t>hubungan_dengan_ppks</t>
+  </si>
+  <si>
+    <t>Ayah</t>
+  </si>
+  <si>
+    <t>Ibu</t>
+  </si>
+  <si>
+    <t>Kakek</t>
+  </si>
+  <si>
+    <t>Nenek</t>
+  </si>
+  <si>
+    <t>Saudara Kandung</t>
+  </si>
+  <si>
+    <t>lainnya</t>
+  </si>
+  <si>
+    <t>jenis_kelamin</t>
+  </si>
+  <si>
+    <t>'Laki-laki','Perempuan'</t>
+  </si>
+  <si>
+    <t>sudah_ada_dtks</t>
+  </si>
+  <si>
+    <t>'Belum','Sudah'</t>
+  </si>
+  <si>
+    <t>bantuan_saat_ini</t>
+  </si>
+  <si>
+    <t>Belum Menerima Bantuan</t>
+  </si>
+  <si>
+    <t>PKH</t>
+  </si>
+  <si>
+    <t>Sembako</t>
+  </si>
+  <si>
+    <t>status_kawin</t>
+  </si>
+  <si>
+    <t>'Belum Kawin','Kawin','Cerai Hidup','Cerai Mati'</t>
   </si>
 </sst>
 </file>
@@ -2456,7 +2671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806CE1A-A304-4D84-8559-A4F04E04FD8E}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -2477,11 +2692,11 @@
     DEC2HEX(RANDBETWEEN(0,4294967295),8),
     DEC2HEX(RANDBETWEEN(0,42949),4)
 )</f>
-        <v>26B59249-85A6-7249-97EA-5FC971259F1F</v>
+        <v>33B4D0D0-9775-1B25-788F-5C5FD0C066CF</v>
       </c>
       <c r="B1" t="str">
         <f ca="1">LOWER(A1)</f>
-        <v>26b59249-85a6-7249-97ea-5fc971259f1f</v>
+        <v>33b4d0d0-9775-1b25-788f-5c5fd0c066cf</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2500,11 +2715,11 @@
     DEC2HEX(RANDBETWEEN(0,4294967295),8),
     DEC2HEX(RANDBETWEEN(0,42949),4)
 )</f>
-        <v>EB3526CB-1D5A-6720-08E7-618F33D220ED</v>
+        <v>1DB5D6C1-625D-522B-5DD7-04CB928C9326</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B37" ca="1" si="1">LOWER(A2)</f>
-        <v>eb3526cb-1d5a-6720-08e7-618f33d220ed</v>
+        <v>1db5d6c1-625d-522b-5dd7-04cb928c9326</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2516,11 +2731,11 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C4DB735E-2B48-2551-722E-17CE6CDB169C</v>
+        <v>074F74D4-4222-2AED-3D6F-0C57A2D7194E</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>c4db735e-2b48-2551-722e-17ce6cdb169c</v>
+        <v>074f74d4-4222-2aed-3d6f-0c57a2d7194e</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2532,11 +2747,11 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0CBB2189-782A-217D-459A-1C565E88744D</v>
+        <v>36B7B8A8-9F77-1428-5530-DF3AD9CF29E6</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0cbb2189-782a-217d-459a-1c565e88744d</v>
+        <v>36b7b8a8-9f77-1428-5530-df3ad9cf29e6</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2548,11 +2763,11 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>FC1320A1-8284-3487-98F4-64C52B400CC2</v>
+        <v>4C8716CD-27F6-7FEA-68FA-5F66E5E29AD7</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>fc1320a1-8284-3487-98f4-64c52b400cc2</v>
+        <v>4c8716cd-27f6-7fea-68fa-5f66e5e29ad7</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2564,11 +2779,11 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8A0310E8-4738-A0AA-A39F-BD6FF8311DDA</v>
+        <v>8424198D-2A38-9A91-94C2-BEA12DA35E4F</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8a0310e8-4738-a0aa-a39f-bd6ff8311dda</v>
+        <v>8424198d-2a38-9a91-94c2-bea12da35e4f</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -2580,11 +2795,11 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>552F115A-7D89-76B9-4494-ABF7BE6B29E3</v>
+        <v>3E66862F-2A83-736F-5ECA-278C37C40818</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>552f115a-7d89-76b9-4494-abf7be6b29e3</v>
+        <v>3e66862f-2a83-736f-5eca-278c37c40818</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -2596,11 +2811,11 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4B3D844F-4979-4245-A2DF-078605344CDD</v>
+        <v>77F34900-1AA6-6A01-3A14-38C64124034D</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4b3d844f-4979-4245-a2df-078605344cdd</v>
+        <v>77f34900-1aa6-6a01-3a14-38c64124034d</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -2612,11 +2827,11 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>211290F0-9A61-0CEA-0909-CE5239ED21DA</v>
+        <v>E4E64136-47B9-7184-5059-748566263552</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>211290f0-9a61-0cea-0909-ce5239ed21da</v>
+        <v>e4e64136-47b9-7184-5059-748566263552</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -2628,11 +2843,11 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>517829BE-A6BB-11C3-8A38-F601857D6E02</v>
+        <v>57DF3739-6C66-95C3-09D6-363530338327</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>517829be-a6bb-11c3-8a38-f601857d6e02</v>
+        <v>57df3739-6c66-95c3-09d6-363530338327</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2644,11 +2859,11 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E3114F45-3291-117F-75DC-57F468FB7D03</v>
+        <v>AD5BC222-2A67-A47A-934F-E9B0C900298B</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>e3114f45-3291-117f-75dc-57f468fb7d03</v>
+        <v>ad5bc222-2a67-a47a-934f-e9b0c900298b</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -2660,11 +2875,11 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9F1C651B-7E39-1478-6A40-158258EA550A</v>
+        <v>67F24FBC-13FD-7B49-1600-1DFAFC292004</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>9f1c651b-7e39-1478-6a40-158258ea550a</v>
+        <v>67f24fbc-13fd-7b49-1600-1dfafc292004</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -2685,11 +2900,11 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>CD5F9685-341F-28C4-2E4C-BF319FB5985D</v>
+        <v>15AF6771-98BE-8009-6C1D-0D70A79A6FF7</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>cd5f9685-341f-28c4-2e4c-bf319fb5985d</v>
+        <v>15af6771-98be-8009-6c1d-0d70a79a6ff7</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -2713,11 +2928,11 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6038AA44-37B8-1B05-6777-01145FBB1C62</v>
+        <v>8C9CD451-5283-9B6E-182E-D08D9B9317B0</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6038aa44-37b8-1b05-6777-01145fbb1c62</v>
+        <v>8c9cd451-5283-9b6e-182e-d08d9b9317b0</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -2741,11 +2956,11 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E164FB91-4B75-167C-3378-4CCD13BE7FDB</v>
+        <v>8059074F-3EDB-8C57-8CA6-B7F5B0592041</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>e164fb91-4b75-167c-3378-4ccd13be7fdb</v>
+        <v>8059074f-3edb-8c57-8ca6-b7f5b0592041</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -2769,11 +2984,11 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0BE2BCE3-A6C8-7594-2AD2-1D67751E7FAF</v>
+        <v>8110E98A-950A-8D68-4CDC-0556946287BD</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0be2bce3-a6c8-7594-2ad2-1d67751e7faf</v>
+        <v>8110e98a-950a-8d68-4cdc-0556946287bd</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -2794,11 +3009,11 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D3BEF9E1-124A-0227-557E-F2C422602703</v>
+        <v>D6C9C731-01D8-2765-2123-8C14F2E25996</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>d3bef9e1-124a-0227-557e-f2c422602703</v>
+        <v>d6c9c731-01d8-2765-2123-8c14f2e25996</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -2822,11 +3037,11 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D8179E81-16E0-7F72-3B49-BDC0D8EC62DA</v>
+        <v>92CDB595-5741-10D4-37E8-13E1E8549F1D</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>d8179e81-16e0-7f72-3b49-bdc0d8ec62da</v>
+        <v>92cdb595-5741-10d4-37e8-13e1e8549f1d</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
@@ -2850,11 +3065,11 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E9EF97F5-2D82-5526-6324-F08EE3EE5E8D</v>
+        <v>55AD94BB-53EF-5913-967B-0C2D908729EB</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>e9ef97f5-2d82-5526-6324-f08ee3ee5e8d</v>
+        <v>55ad94bb-53ef-5913-967b-0c2d908729eb</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -2878,11 +3093,11 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>BE3395D9-2D2A-5388-9CF7-EF1200D22110</v>
+        <v>75F07B1B-4CA8-A443-9F02-3E0FBCF3372F</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>be3395d9-2d2a-5388-9cf7-ef1200d22110</v>
+        <v>75f07b1b-4ca8-a443-9f02-3e0fbcf3372f</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -2906,11 +3121,11 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A55EEBD4-7C62-34F0-0283-C8D94C3A444E</v>
+        <v>C919D9A2-5A4B-457F-5B21-991FA3946194</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>a55eebd4-7c62-34f0-0283-c8d94c3a444e</v>
+        <v>c919d9a2-5a4b-457f-5b21-991fa3946194</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
@@ -2934,11 +3149,11 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>75130DDB-8735-497D-50E5-74E1721564CD</v>
+        <v>96453C7C-A527-A78A-A601-DA41569218F2</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>75130ddb-8735-497d-50e5-74e1721564cd</v>
+        <v>96453c7c-a527-a78a-a601-da41569218f2</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -2962,11 +3177,11 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>63F5433E-5007-5362-1685-5F5709CEA3C5</v>
+        <v>EE1B8471-8004-49C3-5340-A922836B3B69</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>63f5433e-5007-5362-1685-5f5709cea3c5</v>
+        <v>ee1b8471-8004-49c3-5340-a922836b3b69</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -2990,11 +3205,11 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>68E7698E-9B79-46E9-0341-A5EADBF02A0A</v>
+        <v>1E9AE781-5DE6-641E-6F78-EF7F0C9E9955</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>68e7698e-9b79-46e9-0341-a5eadbf02a0a</v>
+        <v>1e9ae781-5de6-641e-6f78-ef7f0c9e9955</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
@@ -3015,11 +3230,11 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9F953A71-734A-A38A-3A3B-4FBDAFB45E9D</v>
+        <v>BE221CB1-A1CB-A10E-31D1-6162D0C65B4E</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>9f953a71-734a-a38a-3a3b-4fbdafb45e9d</v>
+        <v>be221cb1-a1cb-a10e-31d1-6162d0c65b4e</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
@@ -3040,11 +3255,11 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8E3A7307-993C-1B51-6ECB-A9AD2C5142F6</v>
+        <v>83CBE829-3105-7DB8-5E86-250E561B03E8</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8e3a7307-993c-1b51-6ecb-a9ad2c5142f6</v>
+        <v>83cbe829-3105-7db8-5e86-250e561b03e8</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
@@ -3068,11 +3283,11 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6BE75207-5714-1130-2F5D-1EEBFEA35540</v>
+        <v>579E214B-262F-17B5-641E-7E4775BE447D</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6be75207-5714-1130-2f5d-1eebfea35540</v>
+        <v>579e214b-262f-17b5-641e-7e4775be447d</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
@@ -3096,11 +3311,11 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D0C9F515-3949-3F09-58F9-5E157E741EB3</v>
+        <v>A2EBC2AF-42D1-891E-710E-2344C5340A19</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>d0c9f515-3949-3f09-58f9-5e157e741eb3</v>
+        <v>a2ebc2af-42d1-891e-710e-2344c5340a19</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
@@ -3112,11 +3327,11 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E14CEB82-670C-16BC-4450-40B71BD3860C</v>
+        <v>16BBD6FB-1BCC-19FC-38CE-80DC04BD080B</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>e14ceb82-670c-16bc-4450-40b71bd3860c</v>
+        <v>16bbd6fb-1bcc-19fc-38ce-80dc04bd080b</v>
       </c>
       <c r="C29" t="s">
         <v>56</v>
@@ -3128,11 +3343,11 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A99D8BAD-2A80-7933-262C-8C6E91507761</v>
+        <v>391F16D5-A7C3-313A-35D6-F21AC24E9836</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>a99d8bad-2a80-7933-262c-8c6e91507761</v>
+        <v>391f16d5-a7c3-313a-35d6-f21ac24e9836</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
@@ -3144,11 +3359,11 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B7C5C2BD-1D0E-4E0E-8498-BDDF3B2432AA</v>
+        <v>B4FE698D-3D32-37CF-A60F-A3D7F63F25DB</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>b7c5c2bd-1d0e-4e0e-8498-bddf3b2432aa</v>
+        <v>b4fe698d-3d32-37cf-a60f-a3d7f63f25db</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -3160,11 +3375,11 @@
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4ADFB174-2AF5-4B94-28D3-A2290F679D97</v>
+        <v>0AA9ACD7-0205-27C4-3282-4A1303E385E2</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4adfb174-2af5-4b94-28d3-a2290f679d97</v>
+        <v>0aa9acd7-0205-27c4-3282-4a1303e385e2</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -3176,11 +3391,11 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7EE0CE58-61B2-72D6-3699-309E224C392C</v>
+        <v>56DE1ECA-797C-2286-343A-AB6D4FAA964F</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7ee0ce58-61b2-72d6-3699-309e224c392c</v>
+        <v>56de1eca-797c-2286-343a-ab6d4faa964f</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
@@ -3192,11 +3407,11 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4D42F6BB-5B96-97BE-14DC-CA32F6628E5B</v>
+        <v>F9E33C8D-7FE3-4C3C-87E7-4D3B5D860D24</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4d42f6bb-5b96-97be-14dc-ca32f6628e5b</v>
+        <v>f9e33c8d-7fe3-4c3c-87e7-4d3b5d860d24</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
@@ -3208,11 +3423,11 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8041AE3E-56EA-69A4-9FD5-878673785F25</v>
+        <v>8E5CE6BB-27AF-204D-2473-6E3E87F996DA</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8041ae3e-56ea-69a4-9fd5-878673785f25</v>
+        <v>8e5ce6bb-27af-204d-2473-6e3e87f996da</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -3224,11 +3439,11 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>21AE5D2F-1889-712C-713C-A0AAD17D92C5</v>
+        <v>04D6D09C-38F9-2F29-1D4B-584B696E21B8</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>21ae5d2f-1889-712c-713c-a0aad17d92c5</v>
+        <v>04d6d09c-38f9-2f29-1d4b-584b696e21b8</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
@@ -3240,11 +3455,11 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>41C7FAC6-70BD-860A-306C-5D2D87B580EF</v>
+        <v>54D0733A-1DEE-A64B-A67D-7E13F4DC1D69</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>41c7fac6-70bd-860a-306c-5d2d87b580ef</v>
+        <v>54d0733a-1dee-a64b-a67d-7e13f4dc1d69</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -5977,4 +6192,470 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DDFE4B-3C6F-497F-B59D-A9E482998E84}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>685</v>
+      </c>
+      <c r="C5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>689</v>
+      </c>
+      <c r="C8" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>691</v>
+      </c>
+      <c r="C9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>692</v>
+      </c>
+      <c r="C12" t="s">
+        <v>693</v>
+      </c>
+      <c r="D12" t="str">
+        <f>"ALTER TABLE `laksa_tr_residensial` ADD `"&amp;C12&amp;"` VARCHAR(36) NOT NULL AFTER `up_dokumen_rujukan`;"</f>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `ragam_abh` VARCHAR(36) NOT NULL AFTER `up_dokumen_rujukan`;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>694</v>
+      </c>
+      <c r="C13" t="s">
+        <v>695</v>
+      </c>
+      <c r="D13" t="str">
+        <f>"ALTER TABLE `laksa_tr_residensial` ADD `"&amp;C13&amp;"` VARCHAR(36) NOT NULL AFTER `"&amp;C12&amp;"`;"</f>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `informasi_kasus` VARCHAR(36) NOT NULL AFTER `ragam_abh`;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>696</v>
+      </c>
+      <c r="C14" t="s">
+        <v>697</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14:D27" si="0">"ALTER TABLE `laksa_tr_residensial` ADD `"&amp;C14&amp;"` VARCHAR(36) NOT NULL AFTER `"&amp;C13&amp;"`;"</f>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `jenis_rujukan` VARCHAR(36) NOT NULL AFTER `informasi_kasus`;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>698</v>
+      </c>
+      <c r="C15" t="s">
+        <v>699</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `no_putusan_pengadilan` VARCHAR(36) NOT NULL AFTER `jenis_rujukan`;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>700</v>
+      </c>
+      <c r="C16" t="s">
+        <v>701</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `ragam_anak` VARCHAR(36) NOT NULL AFTER `no_putusan_pengadilan`;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>702</v>
+      </c>
+      <c r="C17" t="s">
+        <v>703</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `ragam_kelompok_rentan` VARCHAR(36) NOT NULL AFTER `ragam_anak`;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>704</v>
+      </c>
+      <c r="C18" t="s">
+        <v>705</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `ragam_penyandang_disabilitas` VARCHAR(36) NOT NULL AFTER `ragam_kelompok_rentan`;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>706</v>
+      </c>
+      <c r="C19" t="s">
+        <v>707</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `ragam_disabilitas_fisik` VARCHAR(36) NOT NULL AFTER `ragam_penyandang_disabilitas`;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>708</v>
+      </c>
+      <c r="C20" t="s">
+        <v>709</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `ragam_disabilitas_intelektual` VARCHAR(36) NOT NULL AFTER `ragam_disabilitas_fisik`;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>710</v>
+      </c>
+      <c r="C21" t="s">
+        <v>711</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `ragam_disabilitas_mental` VARCHAR(36) NOT NULL AFTER `ragam_disabilitas_intelektual`;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>712</v>
+      </c>
+      <c r="C22" t="s">
+        <v>713</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `ragam_disabilitas_sensorik` VARCHAR(36) NOT NULL AFTER `ragam_disabilitas_mental`;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>714</v>
+      </c>
+      <c r="C23" t="s">
+        <v>715</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `disabilitas_ganda_multi` VARCHAR(36) NOT NULL AFTER `ragam_disabilitas_sensorik`;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>716</v>
+      </c>
+      <c r="C24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `penerima_atensi` VARCHAR(36) NOT NULL AFTER `disabilitas_ganda_multi`;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>718</v>
+      </c>
+      <c r="C25" t="s">
+        <v>719</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `masa_layanan` VARCHAR(36) NOT NULL AFTER `penerima_atensi`;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>720</v>
+      </c>
+      <c r="C26" t="s">
+        <v>721</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `rencana_tanggal_terminasi` VARCHAR(36) NOT NULL AFTER `masa_layanan`;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>722</v>
+      </c>
+      <c r="C27" t="s">
+        <v>723</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>ALTER TABLE `laksa_tr_residensial` ADD `peksos_pengampu_pendamping_sosial` VARCHAR(36) NOT NULL AFTER `rencana_tanggal_terminasi`;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>724</v>
+      </c>
+      <c r="C28" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>726</v>
+      </c>
+      <c r="C29" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>728</v>
+      </c>
+      <c r="C30" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>730</v>
+      </c>
+      <c r="C31" t="s">
+        <v>731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A4A980-D819-4880-8BB5-6D7D51273349}">
+  <dimension ref="A2:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>739</v>
+      </c>
+      <c r="B9" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>741</v>
+      </c>
+      <c r="B10" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B11" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>747</v>
+      </c>
+      <c r="B14" t="s">
+        <v>748</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/referensi_excel.xlsx
+++ b/referensi_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\projects\laksamana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDABBF1-D9C9-4EBA-A7F7-A2EFC118EFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4BB546-3038-4E85-83BA-B96E761BBD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18210" yWindow="0" windowWidth="9420" windowHeight="16200" activeTab="5" xr2:uid="{6252AF7F-E64E-48FC-ACD7-1B7DD6FD8A9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="5" xr2:uid="{6252AF7F-E64E-48FC-ACD7-1B7DD6FD8A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2692,11 +2692,11 @@
     DEC2HEX(RANDBETWEEN(0,4294967295),8),
     DEC2HEX(RANDBETWEEN(0,42949),4)
 )</f>
-        <v>33B4D0D0-9775-1B25-788F-5C5FD0C066CF</v>
+        <v>659488F2-61BB-5F4A-045D-7F1E4EF878A5</v>
       </c>
       <c r="B1" t="str">
         <f ca="1">LOWER(A1)</f>
-        <v>33b4d0d0-9775-1b25-788f-5c5fd0c066cf</v>
+        <v>659488f2-61bb-5f4a-045d-7f1e4ef878a5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2715,11 +2715,11 @@
     DEC2HEX(RANDBETWEEN(0,4294967295),8),
     DEC2HEX(RANDBETWEEN(0,42949),4)
 )</f>
-        <v>1DB5D6C1-625D-522B-5DD7-04CB928C9326</v>
+        <v>67DA96B0-495E-2747-1C8D-E45375BF476B</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B37" ca="1" si="1">LOWER(A2)</f>
-        <v>1db5d6c1-625d-522b-5dd7-04cb928c9326</v>
+        <v>67da96b0-495e-2747-1c8d-e45375bf476b</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -2731,11 +2731,11 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>074F74D4-4222-2AED-3D6F-0C57A2D7194E</v>
+        <v>31015439-8E33-7E9F-6883-A50E8BAC989D</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>074f74d4-4222-2aed-3d6f-0c57a2d7194e</v>
+        <v>31015439-8e33-7e9f-6883-a50e8bac989d</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2747,11 +2747,11 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>36B7B8A8-9F77-1428-5530-DF3AD9CF29E6</v>
+        <v>6479F315-03FF-7940-888D-E6311149298C</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>36b7b8a8-9f77-1428-5530-df3ad9cf29e6</v>
+        <v>6479f315-03ff-7940-888d-e6311149298c</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2763,11 +2763,11 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4C8716CD-27F6-7FEA-68FA-5F66E5E29AD7</v>
+        <v>4CC2DD0F-2C6E-2D35-6CA3-AEC484DE1B18</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4c8716cd-27f6-7fea-68fa-5f66e5e29ad7</v>
+        <v>4cc2dd0f-2c6e-2d35-6ca3-aec484de1b18</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2779,11 +2779,11 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8424198D-2A38-9A91-94C2-BEA12DA35E4F</v>
+        <v>8CD33D88-8933-74E2-4E57-3BE0233B0F38</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8424198d-2a38-9a91-94c2-bea12da35e4f</v>
+        <v>8cd33d88-8933-74e2-4e57-3be0233b0f38</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -2795,11 +2795,11 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3E66862F-2A83-736F-5ECA-278C37C40818</v>
+        <v>7E05F2D8-901B-3171-143D-0729B3FA2905</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3e66862f-2a83-736f-5eca-278c37c40818</v>
+        <v>7e05f2d8-901b-3171-143d-0729b3fa2905</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -2811,11 +2811,11 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>77F34900-1AA6-6A01-3A14-38C64124034D</v>
+        <v>693B1776-48F7-4A9C-635A-7A1B84606D01</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>77f34900-1aa6-6a01-3a14-38c64124034d</v>
+        <v>693b1776-48f7-4a9c-635a-7a1b84606d01</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -2827,11 +2827,11 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>E4E64136-47B9-7184-5059-748566263552</v>
+        <v>E42B2636-3B9B-939C-7021-1B41326B9AD8</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>e4e64136-47b9-7184-5059-748566263552</v>
+        <v>e42b2636-3b9b-939c-7021-1b41326b9ad8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -2843,11 +2843,11 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>57DF3739-6C66-95C3-09D6-363530338327</v>
+        <v>B79D73FA-7DD3-3E6B-0869-E0C706667CCE</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>57df3739-6c66-95c3-09d6-363530338327</v>
+        <v>b79d73fa-7dd3-3e6b-0869-e0c706667cce</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2859,11 +2859,11 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>AD5BC222-2A67-A47A-934F-E9B0C900298B</v>
+        <v>84339005-6255-400E-A5CD-E3B111366792</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ad5bc222-2a67-a47a-934f-e9b0c900298b</v>
+        <v>84339005-6255-400e-a5cd-e3b111366792</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -2875,11 +2875,11 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>67F24FBC-13FD-7B49-1600-1DFAFC292004</v>
+        <v>1E4335C8-74E7-8760-1810-EB7C34C89CA4</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>67f24fbc-13fd-7b49-1600-1dfafc292004</v>
+        <v>1e4335c8-74e7-8760-1810-eb7c34c89ca4</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -2900,11 +2900,11 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15AF6771-98BE-8009-6C1D-0D70A79A6FF7</v>
+        <v>905495E4-0894-7230-6F50-A2A8849F6F6F</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>15af6771-98be-8009-6c1d-0d70a79a6ff7</v>
+        <v>905495e4-0894-7230-6f50-a2a8849f6f6f</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -2928,11 +2928,11 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8C9CD451-5283-9B6E-182E-D08D9B9317B0</v>
+        <v>A2382B01-9214-56BE-0BDB-ED863EF179A5</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8c9cd451-5283-9b6e-182e-d08d9b9317b0</v>
+        <v>a2382b01-9214-56be-0bdb-ed863ef179a5</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -2956,11 +2956,11 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8059074F-3EDB-8C57-8CA6-B7F5B0592041</v>
+        <v>6D4EFCA6-75BE-130C-9B4B-69C82BA07753</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8059074f-3edb-8c57-8ca6-b7f5b0592041</v>
+        <v>6d4efca6-75be-130c-9b4b-69c82ba07753</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -2984,11 +2984,11 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8110E98A-950A-8D68-4CDC-0556946287BD</v>
+        <v>258C902A-4915-7ACC-20C6-CCE3AC6BA64D</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8110e98a-950a-8d68-4cdc-0556946287bd</v>
+        <v>258c902a-4915-7acc-20c6-cce3ac6ba64d</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -3009,11 +3009,11 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D6C9C731-01D8-2765-2123-8C14F2E25996</v>
+        <v>F3DFEEC1-A0D0-174D-49AF-84FDB8FB2507</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>d6c9c731-01d8-2765-2123-8c14f2e25996</v>
+        <v>f3dfeec1-a0d0-174d-49af-84fdb8fb2507</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -3037,11 +3037,11 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>92CDB595-5741-10D4-37E8-13E1E8549F1D</v>
+        <v>DD77EB41-234F-2515-79B5-0C210C0C0D96</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>92cdb595-5741-10d4-37e8-13e1e8549f1d</v>
+        <v>dd77eb41-234f-2515-79b5-0c210c0c0d96</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
@@ -3065,11 +3065,11 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>55AD94BB-53EF-5913-967B-0C2D908729EB</v>
+        <v>A6E1E495-6FE7-3009-07DD-1190CF4D2AEE</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>55ad94bb-53ef-5913-967b-0c2d908729eb</v>
+        <v>a6e1e495-6fe7-3009-07dd-1190cf4d2aee</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -3093,11 +3093,11 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>75F07B1B-4CA8-A443-9F02-3E0FBCF3372F</v>
+        <v>57C8F6FC-9D65-20B4-4A75-AA7D45C1152D</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>75f07b1b-4ca8-a443-9f02-3e0fbcf3372f</v>
+        <v>57c8f6fc-9d65-20b4-4a75-aa7d45c1152d</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -3121,11 +3121,11 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C919D9A2-5A4B-457F-5B21-991FA3946194</v>
+        <v>CF76D7CB-873F-58CC-23A4-3DF873F255A7</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>c919d9a2-5a4b-457f-5b21-991fa3946194</v>
+        <v>cf76d7cb-873f-58cc-23a4-3df873f255a7</v>
       </c>
       <c r="C21" t="s">
         <v>40</v>
@@ -3149,11 +3149,11 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>96453C7C-A527-A78A-A601-DA41569218F2</v>
+        <v>A1E9ED48-2CDC-63B0-2E48-C61D2B2A1483</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>96453c7c-a527-a78a-a601-da41569218f2</v>
+        <v>a1e9ed48-2cdc-63b0-2e48-c61d2b2a1483</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -3177,11 +3177,11 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>EE1B8471-8004-49C3-5340-A922836B3B69</v>
+        <v>356428B8-347B-1FC1-5D4D-F186D81A4145</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ee1b8471-8004-49c3-5340-a922836b3b69</v>
+        <v>356428b8-347b-1fc1-5d4d-f186d81a4145</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -3205,11 +3205,11 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1E9AE781-5DE6-641E-6F78-EF7F0C9E9955</v>
+        <v>D97DF887-8FD1-48E2-4054-206F53079799</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1e9ae781-5de6-641e-6f78-ef7f0c9e9955</v>
+        <v>d97df887-8fd1-48e2-4054-206f53079799</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
@@ -3230,11 +3230,11 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>BE221CB1-A1CB-A10E-31D1-6162D0C65B4E</v>
+        <v>3CF4F93E-9A8F-A507-4199-F94DC9A710E2</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>be221cb1-a1cb-a10e-31d1-6162d0c65b4e</v>
+        <v>3cf4f93e-9a8f-a507-4199-f94dc9a710e2</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
@@ -3255,11 +3255,11 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>83CBE829-3105-7DB8-5E86-250E561B03E8</v>
+        <v>705B042E-A243-0D05-4A65-C55E68886B14</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>83cbe829-3105-7db8-5e86-250e561b03e8</v>
+        <v>705b042e-a243-0d05-4a65-c55e68886b14</v>
       </c>
       <c r="C26" t="s">
         <v>50</v>
@@ -3283,11 +3283,11 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>579E214B-262F-17B5-641E-7E4775BE447D</v>
+        <v>54BC749C-09C4-300F-4918-7A49344EA649</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>579e214b-262f-17b5-641e-7e4775be447d</v>
+        <v>54bc749c-09c4-300f-4918-7a49344ea649</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
@@ -3311,11 +3311,11 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A2EBC2AF-42D1-891E-710E-2344C5340A19</v>
+        <v>24BF755E-196B-0676-56FA-89E49ACC204C</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>a2ebc2af-42d1-891e-710e-2344c5340a19</v>
+        <v>24bf755e-196b-0676-56fa-89e49acc204c</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
@@ -3327,11 +3327,11 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>16BBD6FB-1BCC-19FC-38CE-80DC04BD080B</v>
+        <v>46192F01-1F6B-9D8D-3D45-6297A33A7320</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>16bbd6fb-1bcc-19fc-38ce-80dc04bd080b</v>
+        <v>46192f01-1f6b-9d8d-3d45-6297a33a7320</v>
       </c>
       <c r="C29" t="s">
         <v>56</v>
@@ -3343,11 +3343,11 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>391F16D5-A7C3-313A-35D6-F21AC24E9836</v>
+        <v>A2F11F33-9CFA-1437-5C6C-E16FF51088FA</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>391f16d5-a7c3-313a-35d6-f21ac24e9836</v>
+        <v>a2f11f33-9cfa-1437-5c6c-e16ff51088fa</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
@@ -3359,11 +3359,11 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B4FE698D-3D32-37CF-A60F-A3D7F63F25DB</v>
+        <v>3575D7D4-6D8E-24F7-152D-502F77004C60</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>b4fe698d-3d32-37cf-a60f-a3d7f63f25db</v>
+        <v>3575d7d4-6d8e-24f7-152d-502f77004c60</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -3375,11 +3375,11 @@
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0AA9ACD7-0205-27C4-3282-4A1303E385E2</v>
+        <v>D53FC249-5EC6-1269-453E-0F09E6411DC6</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0aa9acd7-0205-27c4-3282-4a1303e385e2</v>
+        <v>d53fc249-5ec6-1269-453e-0f09e6411dc6</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -3391,11 +3391,11 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>56DE1ECA-797C-2286-343A-AB6D4FAA964F</v>
+        <v>339B443D-08E0-9F4A-11FF-58C9F8D5A5F4</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>56de1eca-797c-2286-343a-ab6d4faa964f</v>
+        <v>339b443d-08e0-9f4a-11ff-58c9f8d5a5f4</v>
       </c>
       <c r="C33" t="s">
         <v>64</v>
@@ -3407,11 +3407,11 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F9E33C8D-7FE3-4C3C-87E7-4D3B5D860D24</v>
+        <v>92844673-5127-7BCA-55E6-0E130A7B7A9A</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>f9e33c8d-7fe3-4c3c-87e7-4d3b5d860d24</v>
+        <v>92844673-5127-7bca-55e6-0e130a7b7a9a</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
@@ -3423,11 +3423,11 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8E5CE6BB-27AF-204D-2473-6E3E87F996DA</v>
+        <v>01098D72-256C-1CE2-4A10-EFDEF9653BF7</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8e5ce6bb-27af-204d-2473-6e3e87f996da</v>
+        <v>01098d72-256c-1ce2-4a10-efdef9653bf7</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -3439,11 +3439,11 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>04D6D09C-38F9-2F29-1D4B-584B696E21B8</v>
+        <v>40CD81A5-1C40-692F-2492-6CA6C351A260</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>04d6d09c-38f9-2f29-1d4b-584b696e21b8</v>
+        <v>40cd81a5-1c40-692f-2492-6ca6c351a260</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
@@ -3455,11 +3455,11 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>54D0733A-1DEE-A64B-A67D-7E13F4DC1D69</v>
+        <v>22BB773F-0464-9789-6E22-FED7302377B3</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>54d0733a-1dee-a64b-a67d-7e13f4dc1d69</v>
+        <v>22bb773f-0464-9789-6e22-fed7302377b3</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -6572,12 +6572,13 @@
   <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
